--- a/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF6ECCE-9EF6-4BE6-88CD-8361657758A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24099F5-7725-4954-8EED-B4B75CB7D8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FCDCE62-3409-4D62-815D-E0511687AE8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3716E523-4ADF-4261-A7B5-835234C30E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="218">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>48,47%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>51,53%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>56,13%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,13 +143,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>7,95%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -170,520 +170,529 @@
     <t>46,58%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>52,67%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>67,91%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>80,04%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1101,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC28B53-9ADA-4F53-98E1-CED218CC16FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6779B1ED-627C-49CA-859C-2575BE6721A0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1566,10 +1575,10 @@
         <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1593,13 @@
         <v>1550</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1599,13 +1608,13 @@
         <v>649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1614,13 +1623,13 @@
         <v>2200</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1656,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1671,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,7 +1736,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1739,13 +1748,13 @@
         <v>73634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -1754,13 +1763,13 @@
         <v>77396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>179</v>
@@ -1769,13 +1778,13 @@
         <v>151030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1799,13 @@
         <v>149394</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>291</v>
@@ -1805,13 +1814,13 @@
         <v>197918</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>434</v>
@@ -1820,13 +1829,13 @@
         <v>347312</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1850,13 @@
         <v>747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1856,13 +1865,13 @@
         <v>1243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2104,7 +2113,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2113,13 +2122,13 @@
         <v>5374</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2128,13 +2137,13 @@
         <v>6603</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2158,13 @@
         <v>813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2170,7 +2179,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2179,13 +2188,13 @@
         <v>813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2250,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2262,13 @@
         <v>47663</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -2268,13 +2277,13 @@
         <v>27199</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -2283,13 +2292,13 @@
         <v>74862</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2313,13 @@
         <v>204431</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>359</v>
@@ -2319,13 +2328,13 @@
         <v>218142</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>578</v>
@@ -2334,13 +2343,13 @@
         <v>422572</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2364,13 @@
         <v>3476</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2370,13 +2379,13 @@
         <v>2067</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2385,13 +2394,13 @@
         <v>5543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,7 +2421,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2421,13 +2430,13 @@
         <v>744</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2436,13 +2445,13 @@
         <v>744</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,7 +2507,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2510,13 +2519,13 @@
         <v>33082</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -2525,13 +2534,13 @@
         <v>33643</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -2540,13 +2549,13 @@
         <v>66725</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2570,13 @@
         <v>259430</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>653</v>
@@ -2576,13 +2585,13 @@
         <v>355073</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>1037</v>
@@ -2591,13 +2600,13 @@
         <v>614504</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2621,7 @@
         <v>939</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
@@ -2627,13 +2636,13 @@
         <v>5273</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2642,13 +2651,13 @@
         <v>6211</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2678,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2684,7 +2693,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2693,13 +2702,13 @@
         <v>617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2776,13 @@
         <v>424259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>414</v>
@@ -2782,13 +2791,13 @@
         <v>353218</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>790</v>
@@ -2797,13 +2806,13 @@
         <v>777477</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2827,13 @@
         <v>1085518</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H35" s="7">
         <v>1935</v>
@@ -2833,13 +2842,13 @@
         <v>1312615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M35" s="7">
         <v>3010</v>
@@ -2848,13 +2857,13 @@
         <v>2398133</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2878,13 @@
         <v>7941</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -2884,13 +2893,13 @@
         <v>16698</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -2899,13 +2908,13 @@
         <v>24639</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2929,13 @@
         <v>813</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -2935,13 +2944,13 @@
         <v>2156</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2950,13 +2959,13 @@
         <v>2969</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,7 +3021,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24099F5-7725-4954-8EED-B4B75CB7D8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E660459A-EC9E-4E1E-8904-DDC5D51F88F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3716E523-4ADF-4261-A7B5-835234C30E3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94F2BA2C-3C62-42B0-B232-C6DCA4918755}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6779B1ED-627C-49CA-859C-2575BE6721A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C756E6-B5B9-4DFD-AB7E-A438C1089324}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E660459A-EC9E-4E1E-8904-DDC5D51F88F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C0A1D2-DC6E-4CFE-8945-C2A73226FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94F2BA2C-3C62-42B0-B232-C6DCA4918755}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F15DBD1-F5CB-4099-9C1E-AFAD92222669}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="218">
   <si>
     <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -74,169 +74,166 @@
     <t>48,47%</t>
   </si>
   <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
     <t>36,84%</t>
   </si>
   <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
+    <t>55,15%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>52,67%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>67,91%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>1,31%</t>
@@ -254,73 +251,76 @@
     <t>32,91%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -329,13 +329,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -344,355 +344,346 @@
     <t>23,23%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>23,03%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>76,18%</t>
   </si>
   <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1110,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C756E6-B5B9-4DFD-AB7E-A438C1089324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED8ECA7-1B6C-41F9-9A6E-554125143620}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1575,10 +1566,10 @@
         <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1584,13 @@
         <v>1550</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1608,13 +1599,13 @@
         <v>649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1623,13 +1614,13 @@
         <v>2200</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,7 +1641,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1665,7 +1656,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1680,7 +1671,7 @@
         <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1727,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1748,13 +1739,13 @@
         <v>73634</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -1763,13 +1754,13 @@
         <v>77396</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>179</v>
@@ -1778,13 +1769,13 @@
         <v>151030</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1790,13 @@
         <v>149394</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>291</v>
@@ -1814,13 +1805,13 @@
         <v>197918</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>434</v>
@@ -1829,13 +1820,13 @@
         <v>347312</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1841,13 @@
         <v>747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1865,13 +1856,13 @@
         <v>1243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2113,7 +2104,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2122,13 +2113,13 @@
         <v>5374</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2137,13 +2128,13 @@
         <v>6603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2149,13 @@
         <v>813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2179,7 +2170,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2188,13 +2179,13 @@
         <v>813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2241,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2253,13 @@
         <v>47663</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -2277,13 +2268,13 @@
         <v>27199</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -2292,13 +2283,13 @@
         <v>74862</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2304,13 @@
         <v>204431</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>359</v>
@@ -2328,13 +2319,13 @@
         <v>218142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>578</v>
@@ -2343,13 +2334,13 @@
         <v>422572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2355,13 @@
         <v>3476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2379,13 +2370,13 @@
         <v>2067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2394,13 +2385,13 @@
         <v>5543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2412,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2430,13 +2421,13 @@
         <v>744</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2445,13 +2436,13 @@
         <v>744</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2498,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2519,13 +2510,13 @@
         <v>33082</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -2534,13 +2525,13 @@
         <v>33643</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -2549,13 +2540,13 @@
         <v>66725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2561,13 @@
         <v>259430</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>653</v>
@@ -2585,13 +2576,13 @@
         <v>355073</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>1037</v>
@@ -2600,13 +2591,13 @@
         <v>614504</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2612,7 @@
         <v>939</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
@@ -2636,13 +2627,13 @@
         <v>5273</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2651,13 +2642,13 @@
         <v>6211</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2669,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2693,7 +2684,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2702,13 +2693,13 @@
         <v>617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2767,13 @@
         <v>424259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
         <v>414</v>
@@ -2791,13 +2782,13 @@
         <v>353218</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
         <v>790</v>
@@ -2806,13 +2797,13 @@
         <v>777477</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2818,13 @@
         <v>1085518</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>1935</v>
@@ -2842,13 +2833,13 @@
         <v>1312615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M35" s="7">
         <v>3010</v>
@@ -2857,13 +2848,13 @@
         <v>2398133</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2869,13 @@
         <v>7941</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -2893,13 +2884,13 @@
         <v>16698</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -2908,13 +2899,13 @@
         <v>24639</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2920,13 @@
         <v>813</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -2944,13 +2935,13 @@
         <v>2156</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2959,13 +2950,13 @@
         <v>2969</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +3012,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C0A1D2-DC6E-4CFE-8945-C2A73226FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA5DCEB-6629-4A54-B1AD-C055DF543931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F15DBD1-F5CB-4099-9C1E-AFAD92222669}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DFA436C1-4013-4BF8-8D09-29C899095135}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="243">
   <si>
     <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,67 +65,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -140,16 +140,16 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -164,529 +164,604 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
     <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,8 +1176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED8ECA7-1B6C-41F9-9A6E-554125143620}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924F0E05-BA5D-478B-8CE1-3C62EF052693}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1222,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>92956</v>
+        <v>87858</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1237,7 +1312,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>58674</v>
+        <v>51696</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1252,7 +1327,7 @@
         <v>78</v>
       </c>
       <c r="N4" s="7">
-        <v>151630</v>
+        <v>139554</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1273,7 +1348,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>98819</v>
+        <v>116091</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1288,7 +1363,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>97888</v>
+        <v>87062</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1303,7 +1378,7 @@
         <v>99</v>
       </c>
       <c r="N5" s="7">
-        <v>196708</v>
+        <v>203152</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1339,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2092</v>
+        <v>1588</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1354,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2092</v>
+        <v>1588</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1426,7 +1501,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1441,7 +1516,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1456,7 +1531,7 @@
         <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>41</v>
@@ -1479,7 +1554,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="7">
-        <v>96197</v>
+        <v>94440</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
@@ -1494,7 +1569,7 @@
         <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>75904</v>
+        <v>123623</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>46</v>
@@ -1509,7 +1584,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="7">
-        <v>172101</v>
+        <v>218063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>49</v>
@@ -1530,7 +1605,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>108771</v>
+        <v>108920</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -1545,7 +1620,7 @@
         <v>171</v>
       </c>
       <c r="I10" s="7">
-        <v>180276</v>
+        <v>166913</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -1560,16 +1635,16 @@
         <v>249</v>
       </c>
       <c r="N10" s="7">
-        <v>289047</v>
+        <v>275834</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2200</v>
+        <v>1944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1656,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1671,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,7 +1758,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -1698,7 +1773,7 @@
         <v>228</v>
       </c>
       <c r="I13" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>41</v>
@@ -1713,7 +1788,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>41</v>
@@ -1727,7 +1802,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1736,46 +1811,46 @@
         <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>73634</v>
+        <v>69977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
       </c>
       <c r="I14" s="7">
-        <v>77396</v>
+        <v>70965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>179</v>
       </c>
       <c r="N14" s="7">
-        <v>151030</v>
+        <v>140942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,46 +1862,46 @@
         <v>143</v>
       </c>
       <c r="D15" s="7">
-        <v>149394</v>
+        <v>144822</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>291</v>
       </c>
       <c r="I15" s="7">
-        <v>197918</v>
+        <v>184784</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>434</v>
       </c>
       <c r="N15" s="7">
-        <v>347312</v>
+        <v>329606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,46 +1913,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1243</v>
+        <v>1173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1991</v>
+        <v>1861</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,37 +1973,37 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,7 +2015,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>41</v>
@@ -1955,7 +2030,7 @@
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>41</v>
@@ -1970,7 +2045,7 @@
         <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>41</v>
@@ -1984,7 +2059,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1993,46 +2068,46 @@
         <v>82</v>
       </c>
       <c r="D19" s="7">
-        <v>80726</v>
+        <v>77262</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>80402</v>
+        <v>73538</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
       </c>
       <c r="N19" s="7">
-        <v>161128</v>
+        <v>150800</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,46 +2119,46 @@
         <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>264672</v>
+        <v>447282</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>401</v>
       </c>
       <c r="I20" s="7">
-        <v>263319</v>
+        <v>242472</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>613</v>
       </c>
       <c r="N20" s="7">
-        <v>527991</v>
+        <v>689754</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,46 +2170,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1228</v>
+        <v>1250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>5374</v>
+        <v>5009</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>6603</v>
+        <v>6259</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,16 +2221,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2170,22 +2245,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,7 +2272,7 @@
         <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>41</v>
@@ -2212,7 +2287,7 @@
         <v>529</v>
       </c>
       <c r="I23" s="7">
-        <v>349095</v>
+        <v>321020</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>41</v>
@@ -2227,7 +2302,7 @@
         <v>825</v>
       </c>
       <c r="N23" s="7">
-        <v>696535</v>
+        <v>847578</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>41</v>
@@ -2241,7 +2316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2250,46 +2325,46 @@
         <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>47663</v>
+        <v>44540</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
       </c>
       <c r="I24" s="7">
-        <v>27199</v>
+        <v>25192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
       </c>
       <c r="N24" s="7">
-        <v>74862</v>
+        <v>69732</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,46 +2376,46 @@
         <v>219</v>
       </c>
       <c r="D25" s="7">
-        <v>204431</v>
+        <v>190626</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>359</v>
       </c>
       <c r="I25" s="7">
-        <v>218142</v>
+        <v>199569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>578</v>
       </c>
       <c r="N25" s="7">
-        <v>422572</v>
+        <v>390195</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,46 +2427,46 @@
         <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>3476</v>
+        <v>3339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>2067</v>
+        <v>1878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>5543</v>
+        <v>5217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,37 +2487,37 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,7 +2529,7 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>41</v>
@@ -2469,7 +2544,7 @@
         <v>411</v>
       </c>
       <c r="I28" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>41</v>
@@ -2484,7 +2559,7 @@
         <v>689</v>
       </c>
       <c r="N28" s="7">
-        <v>503721</v>
+        <v>465830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>41</v>
@@ -2498,55 +2573,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7">
-        <v>33082</v>
+        <v>19817</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="7">
+        <v>40</v>
+      </c>
+      <c r="I29" s="7">
+        <v>20109</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>71</v>
+      </c>
+      <c r="N29" s="7">
+        <v>39926</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H29" s="7">
-        <v>57</v>
-      </c>
-      <c r="I29" s="7">
-        <v>33643</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M29" s="7">
-        <v>106</v>
-      </c>
-      <c r="N29" s="7">
-        <v>66725</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>384</v>
+        <v>210</v>
       </c>
       <c r="D30" s="7">
-        <v>259430</v>
+        <v>135671</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="7">
+        <v>329</v>
+      </c>
+      <c r="I30" s="7">
+        <v>162677</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>539</v>
+      </c>
+      <c r="N30" s="7">
+        <v>298348</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="7">
-        <v>653</v>
-      </c>
-      <c r="I30" s="7">
-        <v>355073</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1037</v>
-      </c>
-      <c r="N30" s="7">
-        <v>614504</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,46 +2684,46 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>939</v>
+        <v>865</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3074</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="7">
-        <v>9</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5273</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3939</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M31" s="7">
-        <v>10</v>
-      </c>
-      <c r="N31" s="7">
-        <v>6211</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,34 +2747,34 @@
         <v>184</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>617</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,10 +2783,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D33" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>41</v>
@@ -2723,10 +2798,10 @@
         <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I33" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>41</v>
@@ -2738,10 +2813,10 @@
         <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N33" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>41</v>
@@ -2755,55 +2830,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>376</v>
+        <v>18</v>
       </c>
       <c r="D34" s="7">
-        <v>424259</v>
+        <v>11162</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7">
+        <v>10001</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="7">
-        <v>414</v>
-      </c>
-      <c r="I34" s="7">
-        <v>353218</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>35</v>
+      </c>
+      <c r="N34" s="7">
+        <v>21163</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M34" s="7">
-        <v>790</v>
-      </c>
-      <c r="N34" s="7">
-        <v>777477</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,49 +2887,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1075</v>
+        <v>174</v>
       </c>
       <c r="D35" s="7">
-        <v>1085518</v>
+        <v>107044</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>324</v>
+      </c>
+      <c r="I35" s="7">
+        <v>158369</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="7">
-        <v>1935</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1312615</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>498</v>
+      </c>
+      <c r="N35" s="7">
+        <v>265414</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M35" s="7">
-        <v>3010</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2398133</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,49 +2938,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>7941</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="7">
+        <v>3</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1685</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>3</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1685</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="7">
-        <v>24</v>
-      </c>
-      <c r="I36" s="7">
-        <v>16698</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M36" s="7">
-        <v>32</v>
-      </c>
-      <c r="N36" s="7">
-        <v>24639</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,49 +2989,49 @@
         <v>38</v>
       </c>
       <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="7">
         <v>1</v>
       </c>
-      <c r="D37" s="7">
-        <v>813</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="I37" s="7">
+        <v>560</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2156</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>2969</v>
+        <v>560</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,63 +3040,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="7">
+        <v>345</v>
+      </c>
+      <c r="I38" s="7">
+        <v>170615</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="7">
+        <v>537</v>
+      </c>
+      <c r="N38" s="7">
+        <v>288822</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>376</v>
+      </c>
+      <c r="D39" s="7">
+        <v>405056</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="7">
+        <v>414</v>
+      </c>
+      <c r="I39" s="7">
+        <v>375123</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M39" s="7">
+        <v>790</v>
+      </c>
+      <c r="N39" s="7">
+        <v>780179</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1075</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1250455</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1935</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1201847</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M40" s="7">
+        <v>3010</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2452303</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7">
+        <v>7502</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="7">
+        <v>24</v>
+      </c>
+      <c r="I41" s="7">
+        <v>14990</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M41" s="7">
+        <v>32</v>
+      </c>
+      <c r="N41" s="7">
+        <v>22492</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>764</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2778</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1460</v>
       </c>
-      <c r="D38" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="7">
         <v>2376</v>
       </c>
-      <c r="I38" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1593974</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="7">
         <v>3836</v>
       </c>
-      <c r="N38" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>217</v>
+      <c r="N43" s="7">
+        <v>3257752</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
